--- a/SiteCategoryOperation/TestBase/site_base.xlsx
+++ b/SiteCategoryOperation/TestBase/site_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYB141\Desktop\個人ファイル\自動テストプログラム\ContentsCategoryOperation\ContentsCategoryOperation\bin\Release\TestBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYB141\Desktop\個人ファイル\自動テストプログラム\SiteCategoryOperation\SiteCategoryOperation\TestBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="アクションフィールドID">[1]アクションフィールド定義!$X$6:$AE$334</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -175,8 +175,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コンテンツカテゴリテスト仕様書</t>
-    <rPh sb="12" eb="15">
+    <t>サイトカテゴリテスト仕様書</t>
+    <rPh sb="10" eb="13">
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -2460,7 +2460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>

--- a/SiteCategoryOperation/TestBase/site_base.xlsx
+++ b/SiteCategoryOperation/TestBase/site_base.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="コンテンツカテゴリ" sheetId="1" r:id="rId1"/>
+    <sheet name="サイトカテゴリ" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>

--- a/SiteCategoryOperation/TestBase/site_base.xlsx
+++ b/SiteCategoryOperation/TestBase/site_base.xlsx
@@ -94,13 +94,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コンテンツカテゴリ名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>サイトカテゴリID</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -180,6 +173,13 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイトカテゴリ名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2461,7 +2461,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -2571,31 +2571,31 @@
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="54" customHeight="1">
